--- a/Data/Gareth_Farr/NE & Scotland Strata Temps.xlsx
+++ b/Data/Gareth_Farr/NE & Scotland Strata Temps.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Data_phD\Data\Gareth_Farr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mylen\Documents\phD\Data_phD\Data\Gareth_Farr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80918FBF-B6C7-4154-A39B-B3BC73DACFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="NE &amp; Scotalnd Strata Temps" sheetId="1" r:id="rId2"/>
     <sheet name="Burley and Gale 1981" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="All" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="220">
   <si>
     <t>Site</t>
   </si>
@@ -687,262 +694,16 @@
   </si>
   <si>
     <t>Burley&amp;Gale_1981</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1982</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1983</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1984</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1985</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1986</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1987</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1988</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1989</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1990</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1991</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1992</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1993</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1994</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1995</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1996</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1997</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1998</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_1999</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2000</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2001</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2002</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2003</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2004</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2005</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2006</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2007</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2008</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2009</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2010</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2011</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2012</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2013</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2014</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2015</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2016</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2017</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2018</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2019</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2020</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2021</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2022</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2023</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2024</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2025</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2026</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2027</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2028</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2029</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2030</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2031</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2032</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2033</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2034</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2035</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2036</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2037</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2038</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2039</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2040</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2041</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2042</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2043</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2044</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2045</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2046</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2047</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2048</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2049</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2050</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2051</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2052</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2053</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2054</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2055</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2056</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2057</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2058</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2059</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2060</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2061</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2062</t>
-  </si>
-  <si>
-    <t>Burley&amp;Gale_2063</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +807,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1083,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1163,9 +945,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,13 +979,61 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1225,7 +1052,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1237,7 +1064,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2048,7 +1874,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2081,7 +1906,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2176,7 +2000,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2347,7 +2170,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2359,7 +2182,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4165,7 +3987,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4260,7 +4081,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4352,7 +4172,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5668,7 +5487,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5691,19 +5516,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5983,14 +5814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
   </cols>
@@ -6055,7 +5886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -6063,7 +5894,7 @@
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
@@ -7876,7 +7707,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:X480">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X480">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7886,31 +7717,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:W86"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.44140625" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" customWidth="1"/>
-    <col min="6" max="6" width="1.109375" style="38" customWidth="1"/>
-    <col min="7" max="7" width="0.77734375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="1.44140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="1.109375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="37" customWidth="1"/>
+    <col min="7" max="7" width="0.77734375" style="37" customWidth="1"/>
+    <col min="8" max="8" width="1.44140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="1.109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="34" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="34" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.44140625" customWidth="1"/>
-    <col min="14" max="14" width="1.21875" style="35" customWidth="1"/>
-    <col min="15" max="15" width="1.33203125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="1" style="35" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="1.21875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="1.33203125" style="34" customWidth="1"/>
+    <col min="16" max="16" width="1" style="34" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="34" customWidth="1"/>
     <col min="18" max="18" width="7.44140625" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
     <col min="20" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
@@ -7923,44 +7754,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
       <c r="K2" t="s">
         <v>215</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
       <c r="R2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="30" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7980,13 +7811,13 @@
       <c r="E3">
         <v>6902</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>55</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="37">
         <v>54</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="37">
         <v>40</v>
       </c>
       <c r="I3" s="26" t="s">
@@ -8053,20 +7884,20 @@
       <c r="E4">
         <v>647</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>55</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>52</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <v>16</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>178</v>
       </c>
       <c r="J4" s="26">
-        <f t="shared" ref="J4:J67" si="0">F4+G4/60+H4/3600</f>
+        <f t="shared" ref="J4:J64" si="0">F4+G4/60+H4/3600</f>
         <v>55.871111111111112</v>
       </c>
       <c r="K4">
@@ -8088,7 +7919,7 @@
         <v>179</v>
       </c>
       <c r="Q4" s="26">
-        <f t="shared" ref="Q4:Q67" si="1">-1*(M4+N4/60+O4/3600)</f>
+        <f t="shared" ref="Q4:Q64" si="1">-1*(M4+N4/60+O4/3600)</f>
         <v>-3.0180555555555557</v>
       </c>
       <c r="R4">
@@ -8126,13 +7957,13 @@
       <c r="E5">
         <v>7317</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>55</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>57</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="37">
         <v>3</v>
       </c>
       <c r="I5" s="26" t="s">
@@ -8199,13 +8030,13 @@
       <c r="E6">
         <v>5686</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>55</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>48</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>18</v>
       </c>
       <c r="I6" s="26" t="s">
@@ -8272,13 +8103,13 @@
       <c r="E7">
         <v>6773</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <v>55</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>53</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="37">
         <v>55</v>
       </c>
       <c r="I7" s="26" t="s">
@@ -8345,13 +8176,13 @@
       <c r="E8">
         <v>6801</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <v>55</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>54</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>4</v>
       </c>
       <c r="I8" s="26" t="s">
@@ -8418,13 +8249,13 @@
       <c r="E9">
         <v>6979</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>55</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>54</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="37">
         <v>44</v>
       </c>
       <c r="I9" s="26" t="s">
@@ -8491,13 +8322,13 @@
       <c r="E10">
         <v>9659</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>56</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>9</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>26</v>
       </c>
       <c r="I10" s="26" t="s">
@@ -8564,13 +8395,13 @@
       <c r="E11">
         <v>9420</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>56</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>8</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <v>8</v>
       </c>
       <c r="I11" s="26" t="s">
@@ -8637,13 +8468,13 @@
       <c r="E12">
         <v>9795</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>56</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>10</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>9</v>
       </c>
       <c r="I12" s="26" t="s">
@@ -8710,13 +8541,13 @@
       <c r="E13">
         <v>9722</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="39">
         <v>56</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>9</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <v>44</v>
       </c>
       <c r="I13" s="26" t="s">
@@ -8783,13 +8614,13 @@
       <c r="E14">
         <v>9761</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <v>56</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>9</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <v>54</v>
       </c>
       <c r="I14" s="26" t="s">
@@ -8856,13 +8687,13 @@
       <c r="E15">
         <v>7297</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <v>55</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>56</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="37">
         <v>42</v>
       </c>
       <c r="I15" s="26" t="s">
@@ -8929,13 +8760,13 @@
       <c r="E16">
         <v>6320</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <v>55</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>51</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>24</v>
       </c>
       <c r="I16" s="26" t="s">
@@ -9002,13 +8833,13 @@
       <c r="E17">
         <v>6666</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <v>55</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>53</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="37">
         <v>18</v>
       </c>
       <c r="I17" s="26" t="s">
@@ -9075,13 +8906,13 @@
       <c r="E18">
         <v>6125</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <v>55</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>50</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="37">
         <v>19</v>
       </c>
       <c r="I18" s="26" t="s">
@@ -9148,13 +8979,13 @@
       <c r="E19">
         <v>9833</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>56</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>10</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>22</v>
       </c>
       <c r="I19" s="26" t="s">
@@ -9221,18 +9052,18 @@
       <c r="E20">
         <v>691</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="39"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20">
         <v>55.904955999999999</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="32">
         <v>667936</v>
       </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9240,7 +9071,7 @@
       <c r="R20">
         <v>-3.5722786000000002</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="32">
         <v>301866</v>
       </c>
       <c r="T20" s="26">
@@ -9272,18 +9103,18 @@
       <c r="E21">
         <v>6476</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="40"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21">
         <v>55.871780999999999</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="33">
         <v>664760</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
       <c r="Q21" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9291,7 +9122,7 @@
       <c r="R21">
         <v>-3.0190755</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21" s="33">
         <v>336330</v>
       </c>
       <c r="T21" s="26">
@@ -9323,13 +9154,13 @@
       <c r="E22">
         <v>9050</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="41">
         <v>56</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <v>6</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="37">
         <v>9</v>
       </c>
       <c r="I22" s="26" t="s">
@@ -9396,13 +9227,13 @@
       <c r="E23">
         <v>7053</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="39">
         <v>55</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <v>55</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="37">
         <v>23</v>
       </c>
       <c r="I23" s="26" t="s">
@@ -9469,13 +9300,13 @@
       <c r="E24">
         <v>8923</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <v>56</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="37">
         <v>5</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <v>28</v>
       </c>
       <c r="I24" s="26" t="s">
@@ -9542,13 +9373,13 @@
       <c r="E25">
         <v>1852</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <v>54</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="37">
         <v>33</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="37">
         <v>20</v>
       </c>
       <c r="I25" s="26" t="s">
@@ -9600,10 +9431,10 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>209</v>
       </c>
       <c r="C26" t="s">
@@ -9615,13 +9446,13 @@
       <c r="E26">
         <v>2780</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <v>54</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="37">
         <v>38</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="37">
         <v>41</v>
       </c>
       <c r="I26" s="26" t="s">
@@ -9637,13 +9468,13 @@
       <c r="L26">
         <v>527800</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="28">
         <v>1</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="28">
         <v>51</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="28">
         <v>32</v>
       </c>
       <c r="P26" s="26" t="s">
@@ -9659,108 +9490,108 @@
       <c r="S26">
         <v>409100</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="28">
         <v>197</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="29">
         <v>16.100000000000001</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="28">
         <v>39.6</v>
       </c>
-      <c r="W26" s="29" t="s">
+      <c r="W26" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="42"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="26"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29">
+      <c r="S27" s="28"/>
+      <c r="T27" s="28">
         <v>283</v>
       </c>
-      <c r="U27" s="30">
+      <c r="U27" s="29">
         <v>20.100000000000001</v>
       </c>
-      <c r="V27" s="29">
+      <c r="V27" s="28">
         <v>41.7</v>
       </c>
-      <c r="W27" s="29" t="s">
+      <c r="W27" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="43"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="42"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
       <c r="Q28" s="26"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29">
+      <c r="S28" s="28"/>
+      <c r="T28" s="28">
         <v>368</v>
       </c>
-      <c r="U28" s="30">
+      <c r="U28" s="29">
         <v>24.8</v>
       </c>
-      <c r="V28" s="29">
+      <c r="V28" s="28">
         <v>44.8</v>
       </c>
-      <c r="W28" s="29" t="s">
+      <c r="W28" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="43"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="42"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="26"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29">
+      <c r="S29" s="28"/>
+      <c r="T29" s="28">
         <v>488</v>
       </c>
-      <c r="U29" s="30">
+      <c r="U29" s="29">
         <v>29.7</v>
       </c>
-      <c r="V29" s="29">
+      <c r="V29" s="28">
         <v>43.9</v>
       </c>
-      <c r="W29" s="29" t="s">
+      <c r="W29" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>184</v>
       </c>
       <c r="C30" t="s">
@@ -9772,13 +9603,13 @@
       <c r="E30">
         <v>6762</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <v>55</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="37">
         <v>0</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="37">
         <v>10</v>
       </c>
       <c r="I30" s="26" t="s">
@@ -9794,16 +9625,16 @@
       <c r="L30">
         <v>567620</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="28">
         <v>1</v>
       </c>
-      <c r="N30" s="29">
+      <c r="N30" s="28">
         <v>46</v>
       </c>
-      <c r="O30" s="29">
+      <c r="O30" s="28">
         <v>20</v>
       </c>
-      <c r="P30" s="29" t="s">
+      <c r="P30" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q30" s="26">
@@ -9816,24 +9647,24 @@
       <c r="S30">
         <v>414560</v>
       </c>
-      <c r="T30" s="29">
+      <c r="T30" s="28">
         <v>591</v>
       </c>
-      <c r="U30" s="30">
+      <c r="U30" s="29">
         <v>24.7</v>
       </c>
-      <c r="V30" s="29">
+      <c r="V30" s="28">
         <v>25.9</v>
       </c>
-      <c r="W30" s="29" t="s">
+      <c r="W30" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>185</v>
       </c>
       <c r="C31" t="s">
@@ -9845,13 +9676,13 @@
       <c r="E31">
         <v>1360</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="42">
         <v>54</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="37">
         <v>30</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="37">
         <v>42</v>
       </c>
       <c r="I31" s="26" t="s">
@@ -9867,16 +9698,16 @@
       <c r="L31">
         <v>513600</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="28">
         <v>0</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="28">
         <v>48</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="28">
         <v>16</v>
       </c>
-      <c r="P31" s="29" t="s">
+      <c r="P31" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q31" s="26">
@@ -9889,80 +9720,80 @@
       <c r="S31">
         <v>477390</v>
       </c>
-      <c r="T31" s="29">
+      <c r="T31" s="28">
         <v>1357</v>
       </c>
-      <c r="U31" s="30">
+      <c r="U31" s="29">
         <v>59.4</v>
       </c>
-      <c r="V31" s="29">
+      <c r="V31" s="28">
         <v>37.4</v>
       </c>
-      <c r="W31" s="29" t="s">
+      <c r="W31" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="43"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="42"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
       <c r="Q32" s="26"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29">
+      <c r="S32" s="28"/>
+      <c r="T32" s="28">
         <v>1465</v>
       </c>
-      <c r="U32" s="30">
+      <c r="U32" s="29">
         <v>64.400000000000006</v>
       </c>
-      <c r="V32" s="29">
+      <c r="V32" s="28">
         <v>38</v>
       </c>
-      <c r="W32" s="29" t="s">
+      <c r="W32" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="43"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="42"/>
       <c r="I33" s="26"/>
       <c r="J33" s="26"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
       <c r="Q33" s="26"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29">
+      <c r="S33" s="28"/>
+      <c r="T33" s="28">
         <v>1476</v>
       </c>
-      <c r="U33" s="30">
+      <c r="U33" s="29">
         <v>71.099999999999994</v>
       </c>
-      <c r="V33" s="29">
+      <c r="V33" s="28">
         <v>42.3</v>
       </c>
-      <c r="W33" s="29" t="s">
+      <c r="W33" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>211</v>
       </c>
       <c r="C34" t="s">
@@ -9974,13 +9805,13 @@
       <c r="E34">
         <v>243</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <v>54</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="37">
         <v>24</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="37">
         <v>45</v>
       </c>
       <c r="I34" s="26" t="s">
@@ -9996,16 +9827,16 @@
       <c r="L34">
         <v>502430</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="28">
         <v>0</v>
       </c>
-      <c r="N34" s="29">
+      <c r="N34" s="28">
         <v>57</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O34" s="28">
         <v>29</v>
       </c>
-      <c r="P34" s="29" t="s">
+      <c r="P34" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q34" s="26">
@@ -10018,52 +9849,52 @@
       <c r="S34">
         <v>467590</v>
       </c>
-      <c r="T34" s="29">
+      <c r="T34" s="28">
         <v>940</v>
       </c>
-      <c r="U34" s="30">
+      <c r="U34" s="29">
         <v>37.799999999999997</v>
       </c>
-      <c r="V34" s="29">
+      <c r="V34" s="28">
         <v>32.1</v>
       </c>
-      <c r="W34" s="29" t="s">
+      <c r="W34" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="43"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="42"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="26"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29">
+      <c r="S35" s="28"/>
+      <c r="T35" s="28">
         <v>1632</v>
       </c>
-      <c r="U35" s="30">
+      <c r="U35" s="29">
         <v>50</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35" s="28">
         <v>26</v>
       </c>
-      <c r="W35" s="29" t="s">
+      <c r="W35" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>187</v>
       </c>
       <c r="C36" t="s">
@@ -10075,13 +9906,13 @@
       <c r="E36">
         <v>7485</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="42">
         <v>55</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="37">
         <v>4</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="37">
         <v>0</v>
       </c>
       <c r="I36" s="26" t="s">
@@ -10097,16 +9928,16 @@
       <c r="L36">
         <v>574850</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="28">
         <v>1</v>
       </c>
-      <c r="N36" s="29">
+      <c r="N36" s="28">
         <v>27</v>
       </c>
-      <c r="O36" s="29">
+      <c r="O36" s="28">
         <v>7</v>
       </c>
-      <c r="P36" s="29" t="s">
+      <c r="P36" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q36" s="26">
@@ -10119,24 +9950,24 @@
       <c r="S36">
         <v>434980</v>
       </c>
-      <c r="T36" s="29">
+      <c r="T36" s="28">
         <v>1052</v>
       </c>
-      <c r="U36" s="30">
+      <c r="U36" s="29">
         <v>32.200000000000003</v>
       </c>
-      <c r="V36" s="29">
+      <c r="V36" s="28">
         <v>21.1</v>
       </c>
-      <c r="W36" s="29" t="s">
+      <c r="W36" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>188</v>
       </c>
       <c r="C37" t="s">
@@ -10148,13 +9979,13 @@
       <c r="E37">
         <v>38</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="42">
         <v>54</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="37">
         <v>36</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="37">
         <v>23</v>
       </c>
       <c r="I37" s="26" t="s">
@@ -10170,16 +10001,16 @@
       <c r="L37">
         <v>523800</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="28">
         <v>1</v>
       </c>
-      <c r="N37" s="29">
+      <c r="N37" s="28">
         <v>10</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="28">
         <v>1</v>
       </c>
-      <c r="P37" s="29" t="s">
+      <c r="P37" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q37" s="26">
@@ -10192,24 +10023,24 @@
       <c r="S37">
         <v>453800</v>
       </c>
-      <c r="T37" s="29">
+      <c r="T37" s="28">
         <v>4170</v>
       </c>
-      <c r="U37" s="30">
+      <c r="U37" s="29">
         <v>104</v>
       </c>
-      <c r="V37" s="29">
+      <c r="V37" s="28">
         <v>22.6</v>
       </c>
-      <c r="W37" s="29" t="s">
+      <c r="W37" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>189</v>
       </c>
       <c r="C38" t="s">
@@ -10221,13 +10052,13 @@
       <c r="E38">
         <v>878</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="42">
         <v>54</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="37">
         <v>27</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="37">
         <v>57</v>
       </c>
       <c r="I38" s="26" t="s">
@@ -10243,16 +10074,16 @@
       <c r="L38">
         <v>508780</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="28">
         <v>0</v>
       </c>
-      <c r="N38" s="29">
+      <c r="N38" s="28">
         <v>24</v>
       </c>
-      <c r="O38" s="29">
+      <c r="O38" s="28">
         <v>35</v>
       </c>
-      <c r="P38" s="29" t="s">
+      <c r="P38" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q38" s="26">
@@ -10265,24 +10096,24 @@
       <c r="S38">
         <v>492260</v>
       </c>
-      <c r="T38" s="29">
+      <c r="T38" s="28">
         <v>1351</v>
       </c>
-      <c r="U38" s="30">
+      <c r="U38" s="29">
         <v>41</v>
       </c>
-      <c r="V38" s="29">
+      <c r="V38" s="28">
         <v>23.3</v>
       </c>
-      <c r="W38" s="29" t="s">
+      <c r="W38" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>190</v>
       </c>
       <c r="C39" t="s">
@@ -10294,13 +10125,13 @@
       <c r="E39">
         <v>637</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="42">
         <v>54</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="37">
         <v>26</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="37">
         <v>37</v>
       </c>
       <c r="I39" s="26" t="s">
@@ -10316,16 +10147,16 @@
       <c r="L39">
         <v>506370</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="28">
         <v>0</v>
       </c>
-      <c r="N39" s="29">
+      <c r="N39" s="28">
         <v>33</v>
       </c>
-      <c r="O39" s="29">
+      <c r="O39" s="28">
         <v>1</v>
       </c>
-      <c r="P39" s="29" t="s">
+      <c r="P39" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q39" s="26">
@@ -10338,24 +10169,24 @@
       <c r="S39">
         <v>493990</v>
       </c>
-      <c r="T39" s="29">
+      <c r="T39" s="28">
         <v>1264</v>
       </c>
-      <c r="U39" s="30">
+      <c r="U39" s="29">
         <v>42.2</v>
       </c>
-      <c r="V39" s="29">
+      <c r="V39" s="28">
         <v>26.3</v>
       </c>
-      <c r="W39" s="29" t="s">
+      <c r="W39" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>191</v>
       </c>
       <c r="C40" t="s">
@@ -10367,13 +10198,13 @@
       <c r="E40">
         <v>669</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="42">
         <v>54</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="37">
         <v>26</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="37">
         <v>49</v>
       </c>
       <c r="I40" s="26" t="s">
@@ -10389,16 +10220,16 @@
       <c r="L40">
         <v>506690</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M40" s="28">
         <v>0</v>
       </c>
-      <c r="N40" s="29">
+      <c r="N40" s="28">
         <v>35</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O40" s="28">
         <v>2</v>
       </c>
-      <c r="P40" s="29" t="s">
+      <c r="P40" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q40" s="26">
@@ -10411,24 +10242,24 @@
       <c r="S40">
         <v>491810</v>
       </c>
-      <c r="T40" s="29">
+      <c r="T40" s="28">
         <v>1360</v>
       </c>
-      <c r="U40" s="30">
+      <c r="U40" s="29">
         <v>45</v>
       </c>
-      <c r="V40" s="29">
+      <c r="V40" s="28">
         <v>26.3</v>
       </c>
-      <c r="W40" s="29" t="s">
+      <c r="W40" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>192</v>
       </c>
       <c r="C41" t="s">
@@ -10440,13 +10271,13 @@
       <c r="E41">
         <v>801</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="42">
         <v>54</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="37">
         <v>27</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="37">
         <v>32</v>
       </c>
       <c r="I41" s="26" t="s">
@@ -10462,16 +10293,16 @@
       <c r="L41">
         <v>508010</v>
       </c>
-      <c r="M41" s="29">
+      <c r="M41" s="28">
         <v>0</v>
       </c>
-      <c r="N41" s="29">
+      <c r="N41" s="28">
         <v>34</v>
       </c>
-      <c r="O41" s="29">
+      <c r="O41" s="28">
         <v>25</v>
       </c>
-      <c r="P41" s="29" t="s">
+      <c r="P41" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q41" s="26">
@@ -10484,24 +10315,24 @@
       <c r="S41">
         <v>492450</v>
       </c>
-      <c r="T41" s="29">
+      <c r="T41" s="28">
         <v>1387</v>
       </c>
-      <c r="U41" s="30">
+      <c r="U41" s="29">
         <v>42.2</v>
       </c>
-      <c r="V41" s="29">
+      <c r="V41" s="28">
         <v>23.6</v>
       </c>
-      <c r="W41" s="29" t="s">
+      <c r="W41" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>193</v>
       </c>
       <c r="C42" t="s">
@@ -10513,13 +10344,13 @@
       <c r="E42">
         <v>685</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="42">
         <v>54</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="37">
         <v>26</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="37">
         <v>56</v>
       </c>
       <c r="I42" s="26" t="s">
@@ -10535,16 +10366,16 @@
       <c r="L42">
         <v>506850</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42" s="28">
         <v>0</v>
       </c>
-      <c r="N42" s="29">
+      <c r="N42" s="28">
         <v>37</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O42" s="28">
         <v>6</v>
       </c>
-      <c r="P42" s="29" t="s">
+      <c r="P42" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q42" s="26">
@@ -10557,24 +10388,24 @@
       <c r="S42">
         <v>489570</v>
       </c>
-      <c r="T42" s="29">
+      <c r="T42" s="28">
         <v>1311</v>
       </c>
-      <c r="U42" s="30">
+      <c r="U42" s="29">
         <v>39</v>
       </c>
-      <c r="V42" s="29">
+      <c r="V42" s="28">
         <v>22.8</v>
       </c>
-      <c r="W42" s="29" t="s">
+      <c r="W42" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
         <v>210</v>
       </c>
       <c r="C43" t="s">
@@ -10586,13 +10417,13 @@
       <c r="E43">
         <v>894</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="42">
         <v>54</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="37">
         <v>28</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="37">
         <v>3</v>
       </c>
       <c r="I43" s="26" t="s">
@@ -10608,16 +10439,16 @@
       <c r="L43">
         <v>508940</v>
       </c>
-      <c r="M43" s="29">
+      <c r="M43" s="28">
         <v>0</v>
       </c>
-      <c r="N43" s="29">
+      <c r="N43" s="28">
         <v>37</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="28">
         <v>2</v>
       </c>
-      <c r="P43" s="29" t="s">
+      <c r="P43" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q43" s="26">
@@ -10630,24 +10461,24 @@
       <c r="S43">
         <v>489600</v>
       </c>
-      <c r="T43" s="29">
+      <c r="T43" s="28">
         <v>1341</v>
       </c>
-      <c r="U43" s="30">
+      <c r="U43" s="29">
         <v>42.2</v>
       </c>
-      <c r="V43" s="29">
+      <c r="V43" s="28">
         <v>24.2</v>
       </c>
-      <c r="W43" s="29" t="s">
+      <c r="W43" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>194</v>
       </c>
       <c r="C44" t="s">
@@ -10659,13 +10490,13 @@
       <c r="E44">
         <v>737</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="42">
         <v>54</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="37">
         <v>27</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="37">
         <v>10</v>
       </c>
       <c r="I44" s="26" t="s">
@@ -10681,16 +10512,16 @@
       <c r="L44">
         <v>507370</v>
       </c>
-      <c r="M44" s="29">
+      <c r="M44" s="28">
         <v>0</v>
       </c>
-      <c r="N44" s="29">
+      <c r="N44" s="28">
         <v>32</v>
       </c>
-      <c r="O44" s="29">
+      <c r="O44" s="28">
         <v>39</v>
       </c>
-      <c r="P44" s="29" t="s">
+      <c r="P44" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q44" s="26">
@@ -10703,24 +10534,24 @@
       <c r="S44">
         <v>494370</v>
       </c>
-      <c r="T44" s="29">
+      <c r="T44" s="28">
         <v>1317</v>
       </c>
-      <c r="U44" s="30">
+      <c r="U44" s="29">
         <v>44</v>
       </c>
-      <c r="V44" s="29">
+      <c r="V44" s="28">
         <v>26.4</v>
       </c>
-      <c r="W44" s="29" t="s">
+      <c r="W44" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="28" t="s">
         <v>195</v>
       </c>
       <c r="C45" t="s">
@@ -10732,13 +10563,13 @@
       <c r="E45">
         <v>792</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="42">
         <v>54</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="37">
         <v>27</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="37">
         <v>29</v>
       </c>
       <c r="I45" s="26" t="s">
@@ -10754,16 +10585,16 @@
       <c r="L45">
         <v>507920</v>
       </c>
-      <c r="M45" s="29">
+      <c r="M45" s="28">
         <v>0</v>
       </c>
-      <c r="N45" s="29">
+      <c r="N45" s="28">
         <v>35</v>
       </c>
-      <c r="O45" s="29">
+      <c r="O45" s="28">
         <v>15</v>
       </c>
-      <c r="P45" s="29" t="s">
+      <c r="P45" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q45" s="26">
@@ -10776,24 +10607,24 @@
       <c r="S45">
         <v>491540</v>
       </c>
-      <c r="T45" s="29">
+      <c r="T45" s="28">
         <v>1413</v>
       </c>
-      <c r="U45" s="30">
+      <c r="U45" s="29">
         <v>45</v>
       </c>
-      <c r="V45" s="29">
+      <c r="V45" s="28">
         <v>25.1</v>
       </c>
-      <c r="W45" s="29" t="s">
+      <c r="W45" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>198</v>
       </c>
       <c r="C46" t="s">
@@ -10805,13 +10636,13 @@
       <c r="E46">
         <v>130</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="42">
         <v>54</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="37">
         <v>23</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="37">
         <v>52</v>
       </c>
       <c r="I46" s="26" t="s">
@@ -10827,16 +10658,16 @@
       <c r="L46">
         <v>501300</v>
       </c>
-      <c r="M46" s="29">
+      <c r="M46" s="28">
         <v>0</v>
       </c>
-      <c r="N46" s="29">
+      <c r="N46" s="28">
         <v>30</v>
       </c>
-      <c r="O46" s="29">
+      <c r="O46" s="28">
         <v>40</v>
       </c>
-      <c r="P46" s="29" t="s">
+      <c r="P46" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q46" s="26">
@@ -10849,24 +10680,24 @@
       <c r="S46">
         <v>496630</v>
       </c>
-      <c r="T46" s="29">
+      <c r="T46" s="28">
         <v>1372</v>
       </c>
-      <c r="U46" s="30">
+      <c r="U46" s="29">
         <v>4</v>
       </c>
-      <c r="V46" s="29">
+      <c r="V46" s="28">
         <v>23</v>
       </c>
-      <c r="W46" s="29" t="s">
+      <c r="W46" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>196</v>
       </c>
       <c r="C47" t="s">
@@ -10878,13 +10709,13 @@
       <c r="E47">
         <v>424</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="42">
         <v>54</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="37">
         <v>25</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="37">
         <v>34</v>
       </c>
       <c r="I47" s="26" t="s">
@@ -10900,16 +10731,16 @@
       <c r="L47">
         <v>504240</v>
       </c>
-      <c r="M47" s="29">
+      <c r="M47" s="28">
         <v>0</v>
       </c>
-      <c r="N47" s="29">
+      <c r="N47" s="28">
         <v>40</v>
       </c>
-      <c r="O47" s="29">
+      <c r="O47" s="28">
         <v>53</v>
       </c>
-      <c r="P47" s="29" t="s">
+      <c r="P47" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q47" s="26">
@@ -10922,24 +10753,24 @@
       <c r="S47">
         <v>485440</v>
       </c>
-      <c r="T47" s="29">
+      <c r="T47" s="28">
         <v>1481</v>
       </c>
-      <c r="U47" s="30">
+      <c r="U47" s="29">
         <v>71.099999999999994</v>
       </c>
-      <c r="V47" s="29">
+      <c r="V47" s="28">
         <v>42.4</v>
       </c>
-      <c r="W47" s="29" t="s">
+      <c r="W47" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="28" t="s">
         <v>197</v>
       </c>
       <c r="C48" t="s">
@@ -10951,13 +10782,13 @@
       <c r="E48">
         <v>82</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="42">
         <v>54</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="37">
         <v>27</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="37">
         <v>43</v>
       </c>
       <c r="I48" s="26" t="s">
@@ -10973,16 +10804,16 @@
       <c r="L48">
         <v>508200</v>
       </c>
-      <c r="M48" s="29">
+      <c r="M48" s="28">
         <v>0</v>
       </c>
-      <c r="N48" s="29">
+      <c r="N48" s="28">
         <v>40</v>
       </c>
-      <c r="O48" s="29">
+      <c r="O48" s="28">
         <v>36</v>
       </c>
-      <c r="P48" s="29" t="s">
+      <c r="P48" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q48" s="26">
@@ -10995,132 +10826,132 @@
       <c r="S48">
         <v>485700</v>
       </c>
-      <c r="T48" s="29">
+      <c r="T48" s="28">
         <v>1219</v>
       </c>
-      <c r="U48" s="30">
+      <c r="U48" s="29">
         <v>33.299999999999997</v>
       </c>
-      <c r="V48" s="29">
+      <c r="V48" s="28">
         <v>19.600000000000001</v>
       </c>
-      <c r="W48" s="29" t="s">
+      <c r="W48" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="43"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="42"/>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="26"/>
-      <c r="T49" s="29">
+      <c r="T49" s="28">
         <v>1219</v>
       </c>
-      <c r="U49" s="30">
+      <c r="U49" s="29">
         <v>43.3</v>
       </c>
-      <c r="V49" s="29">
+      <c r="V49" s="28">
         <v>27.8</v>
       </c>
-      <c r="W49" s="29" t="s">
+      <c r="W49" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="43"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="42"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
       <c r="Q50" s="26"/>
-      <c r="T50" s="29">
+      <c r="T50" s="28">
         <v>1219</v>
       </c>
-      <c r="U50" s="30">
+      <c r="U50" s="29">
         <v>44.7</v>
       </c>
-      <c r="V50" s="29">
+      <c r="V50" s="28">
         <v>29</v>
       </c>
-      <c r="W50" s="29" t="s">
+      <c r="W50" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="43"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="42"/>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
       <c r="Q51" s="26"/>
-      <c r="T51" s="29">
+      <c r="T51" s="28">
         <v>1695</v>
       </c>
-      <c r="U51" s="30">
+      <c r="U51" s="29">
         <v>43.3</v>
       </c>
-      <c r="V51" s="29">
+      <c r="V51" s="28">
         <v>20</v>
       </c>
-      <c r="W51" s="29" t="s">
+      <c r="W51" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="43"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="42"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
       <c r="Q52" s="26"/>
-      <c r="T52" s="29">
+      <c r="T52" s="28">
         <v>1873</v>
       </c>
-      <c r="U52" s="30">
+      <c r="U52" s="29">
         <v>41.1</v>
       </c>
-      <c r="V52" s="29">
+      <c r="V52" s="28">
         <v>16.899999999999999</v>
       </c>
-      <c r="W52" s="29" t="s">
+      <c r="W52" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>199</v>
       </c>
       <c r="C53" t="s">
@@ -11132,13 +10963,13 @@
       <c r="E53">
         <v>6562</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="42">
         <v>54</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="37">
         <v>59</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="37">
         <v>1</v>
       </c>
       <c r="I53" s="26" t="s">
@@ -11154,16 +10985,16 @@
       <c r="L53">
         <v>565620</v>
       </c>
-      <c r="M53" s="29">
+      <c r="M53" s="28">
         <v>1</v>
       </c>
-      <c r="N53" s="29">
+      <c r="N53" s="28">
         <v>22</v>
       </c>
-      <c r="O53" s="29">
+      <c r="O53" s="28">
         <v>48</v>
       </c>
-      <c r="P53" s="29" t="s">
+      <c r="P53" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q53" s="26">
@@ -11176,52 +11007,52 @@
       <c r="S53">
         <v>439660</v>
       </c>
-      <c r="T53" s="29">
+      <c r="T53" s="28">
         <v>1322</v>
       </c>
-      <c r="U53" s="30">
+      <c r="U53" s="29">
         <v>44.8</v>
       </c>
-      <c r="V53" s="29">
+      <c r="V53" s="28">
         <v>26.4</v>
       </c>
-      <c r="W53" s="29" t="s">
+      <c r="W53" s="28" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="43"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="42"/>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="L54" s="26"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
       <c r="Q54" s="26"/>
-      <c r="T54" s="29">
+      <c r="T54" s="28">
         <v>1768</v>
       </c>
-      <c r="U54" s="30">
+      <c r="U54" s="29">
         <v>68.900000000000006</v>
       </c>
-      <c r="V54" s="29">
+      <c r="V54" s="28">
         <v>33.4</v>
       </c>
-      <c r="W54" s="29" t="s">
+      <c r="W54" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C55" t="s">
@@ -11233,13 +11064,13 @@
       <c r="E55">
         <v>403</v>
       </c>
-      <c r="F55" s="43">
+      <c r="F55" s="42">
         <v>54</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="37">
         <v>25</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="37">
         <v>21</v>
       </c>
       <c r="I55" s="26" t="s">
@@ -11255,16 +11086,16 @@
       <c r="L55">
         <v>504030</v>
       </c>
-      <c r="M55" s="29">
+      <c r="M55" s="28">
         <v>0</v>
       </c>
-      <c r="N55" s="29">
+      <c r="N55" s="28">
         <v>32</v>
       </c>
-      <c r="O55" s="29">
+      <c r="O55" s="28">
         <v>20</v>
       </c>
-      <c r="P55" s="29" t="s">
+      <c r="P55" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q55" s="26">
@@ -11277,24 +11108,24 @@
       <c r="S55">
         <v>494780</v>
       </c>
-      <c r="T55" s="29">
+      <c r="T55" s="28">
         <v>1638</v>
       </c>
-      <c r="U55" s="30">
+      <c r="U55" s="29">
         <v>46.7</v>
       </c>
-      <c r="V55" s="29">
+      <c r="V55" s="28">
         <v>22.6</v>
       </c>
-      <c r="W55" s="29" t="s">
+      <c r="W55" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="28" t="s">
         <v>201</v>
       </c>
       <c r="C56" t="s">
@@ -11306,13 +11137,13 @@
       <c r="E56">
         <v>2127</v>
       </c>
-      <c r="F56" s="43">
+      <c r="F56" s="42">
         <v>54</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="37">
         <v>34</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="37">
         <v>59</v>
       </c>
       <c r="I56" s="26" t="s">
@@ -11328,16 +11159,16 @@
       <c r="L56">
         <v>521270</v>
       </c>
-      <c r="M56" s="29">
+      <c r="M56" s="28">
         <v>1</v>
       </c>
-      <c r="N56" s="29">
+      <c r="N56" s="28">
         <v>5</v>
       </c>
-      <c r="O56" s="29">
+      <c r="O56" s="28">
         <v>25</v>
       </c>
-      <c r="P56" s="29" t="s">
+      <c r="P56" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q56" s="26">
@@ -11350,220 +11181,220 @@
       <c r="S56">
         <v>458790</v>
       </c>
-      <c r="T56" s="29">
+      <c r="T56" s="28">
         <v>191</v>
       </c>
-      <c r="U56" s="30">
+      <c r="U56" s="29">
         <v>16.100000000000001</v>
       </c>
-      <c r="V56" s="29">
+      <c r="V56" s="28">
         <v>32.5</v>
       </c>
-      <c r="W56" s="29" t="s">
+      <c r="W56" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="43"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="42"/>
       <c r="I57" s="26"/>
       <c r="J57" s="26"/>
       <c r="L57" s="26"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
       <c r="Q57" s="26"/>
-      <c r="T57" s="29">
+      <c r="T57" s="28">
         <v>286</v>
       </c>
-      <c r="U57" s="30">
+      <c r="U57" s="29">
         <v>18.399999999999999</v>
       </c>
-      <c r="V57" s="29">
+      <c r="V57" s="28">
         <v>29.7</v>
       </c>
-      <c r="W57" s="29" t="s">
+      <c r="W57" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="43"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="42"/>
       <c r="I58" s="26"/>
       <c r="J58" s="26"/>
       <c r="L58" s="26"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
       <c r="Q58" s="26"/>
-      <c r="T58" s="29">
+      <c r="T58" s="28">
         <v>381</v>
       </c>
-      <c r="U58" s="30">
+      <c r="U58" s="29">
         <v>20.6</v>
       </c>
-      <c r="V58" s="29">
+      <c r="V58" s="28">
         <v>28.1</v>
       </c>
-      <c r="W58" s="29" t="s">
+      <c r="W58" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="43"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="42"/>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
       <c r="L59" s="26"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
       <c r="Q59" s="26"/>
-      <c r="T59" s="29">
+      <c r="T59" s="28">
         <v>477</v>
       </c>
-      <c r="U59" s="30">
+      <c r="U59" s="29">
         <v>22.2</v>
       </c>
-      <c r="V59" s="29">
+      <c r="V59" s="28">
         <v>25.8</v>
       </c>
-      <c r="W59" s="29" t="s">
+      <c r="W59" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="43"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="42"/>
       <c r="I60" s="26"/>
       <c r="J60" s="26"/>
       <c r="L60" s="26"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="26"/>
-      <c r="T60" s="29">
+      <c r="T60" s="28">
         <v>572</v>
       </c>
-      <c r="U60" s="30">
+      <c r="U60" s="29">
         <v>24.3</v>
       </c>
-      <c r="V60" s="29">
+      <c r="V60" s="28">
         <v>25.2</v>
       </c>
-      <c r="W60" s="29" t="s">
+      <c r="W60" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="43"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="42"/>
       <c r="I61" s="26"/>
       <c r="J61" s="26"/>
       <c r="L61" s="26"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
       <c r="Q61" s="26"/>
-      <c r="T61" s="29">
+      <c r="T61" s="28">
         <v>668</v>
       </c>
-      <c r="U61" s="30">
+      <c r="U61" s="29">
         <v>27</v>
       </c>
-      <c r="V61" s="29">
+      <c r="V61" s="28">
         <v>25.6</v>
       </c>
-      <c r="W61" s="29" t="s">
+      <c r="W61" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="43"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="42"/>
       <c r="I62" s="26"/>
       <c r="J62" s="26"/>
       <c r="L62" s="26"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
       <c r="Q62" s="26"/>
-      <c r="T62" s="29">
+      <c r="T62" s="28">
         <v>858</v>
       </c>
-      <c r="U62" s="30">
+      <c r="U62" s="29">
         <v>29.4</v>
       </c>
-      <c r="V62" s="29">
+      <c r="V62" s="28">
         <v>22.7</v>
       </c>
-      <c r="W62" s="29" t="s">
+      <c r="W62" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="43"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="42"/>
       <c r="I63" s="26"/>
       <c r="J63" s="26"/>
       <c r="L63" s="26"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
       <c r="Q63" s="26"/>
-      <c r="T63" s="29">
+      <c r="T63" s="28">
         <v>935</v>
       </c>
-      <c r="U63" s="30">
+      <c r="U63" s="29">
         <v>30.4</v>
       </c>
-      <c r="V63" s="29">
+      <c r="V63" s="28">
         <v>21.9</v>
       </c>
-      <c r="W63" s="29" t="s">
+      <c r="W63" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="28" t="s">
         <v>202</v>
       </c>
       <c r="C64" t="s">
@@ -11575,13 +11406,13 @@
       <c r="E64">
         <v>1810</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="42">
         <v>54</v>
       </c>
-      <c r="G64" s="38">
+      <c r="G64" s="37">
         <v>33</v>
       </c>
-      <c r="H64" s="38">
+      <c r="H64" s="37">
         <v>15</v>
       </c>
       <c r="I64" s="26" t="s">
@@ -11597,16 +11428,16 @@
       <c r="L64">
         <v>518100</v>
       </c>
-      <c r="M64" s="29">
+      <c r="M64" s="28">
         <v>1</v>
       </c>
-      <c r="N64" s="29">
+      <c r="N64" s="28">
         <v>1</v>
       </c>
-      <c r="O64" s="29">
+      <c r="O64" s="28">
         <v>25</v>
       </c>
-      <c r="P64" s="29" t="s">
+      <c r="P64" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q64" s="26">
@@ -11619,192 +11450,192 @@
       <c r="S64">
         <v>463140</v>
       </c>
-      <c r="T64" s="29">
+      <c r="T64" s="28">
         <v>191</v>
       </c>
-      <c r="U64" s="30">
+      <c r="U64" s="29">
         <v>15.9</v>
       </c>
-      <c r="V64" s="29">
+      <c r="V64" s="28">
         <v>32.5</v>
       </c>
-      <c r="W64" s="29" t="s">
+      <c r="W64" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="43"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="42"/>
       <c r="I65" s="26"/>
       <c r="J65" s="26"/>
       <c r="L65" s="26"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
       <c r="Q65" s="26"/>
-      <c r="T65" s="29">
+      <c r="T65" s="28">
         <v>281</v>
       </c>
-      <c r="U65" s="30">
+      <c r="U65" s="29">
         <v>18.899999999999999</v>
       </c>
-      <c r="V65" s="29">
+      <c r="V65" s="28">
         <v>32.700000000000003</v>
       </c>
-      <c r="W65" s="29" t="s">
+      <c r="W65" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="43"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="42"/>
       <c r="I66" s="26"/>
       <c r="J66" s="26"/>
       <c r="L66" s="26"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
       <c r="Q66" s="26"/>
-      <c r="T66" s="29">
+      <c r="T66" s="28">
         <v>429</v>
       </c>
-      <c r="U66" s="30">
+      <c r="U66" s="29">
         <v>24.4</v>
       </c>
-      <c r="V66" s="29">
+      <c r="V66" s="28">
         <v>34.299999999999997</v>
       </c>
-      <c r="W66" s="29" t="s">
+      <c r="W66" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="43"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="42"/>
       <c r="I67" s="26"/>
       <c r="J67" s="26"/>
       <c r="L67" s="26"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
       <c r="Q67" s="26"/>
-      <c r="T67" s="29">
+      <c r="T67" s="28">
         <v>572</v>
       </c>
-      <c r="U67" s="30">
+      <c r="U67" s="29">
         <v>27.9</v>
       </c>
-      <c r="V67" s="29">
+      <c r="V67" s="28">
         <v>31.8</v>
       </c>
-      <c r="W67" s="29" t="s">
+      <c r="W67" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A68" s="28"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="43"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="42"/>
       <c r="I68" s="26"/>
       <c r="J68" s="26"/>
       <c r="L68" s="26"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
       <c r="Q68" s="26"/>
-      <c r="T68" s="29">
+      <c r="T68" s="28">
         <v>715</v>
       </c>
-      <c r="U68" s="30">
+      <c r="U68" s="29">
         <v>30.6</v>
       </c>
-      <c r="V68" s="29">
+      <c r="V68" s="28">
         <v>29.2</v>
       </c>
-      <c r="W68" s="29" t="s">
+      <c r="W68" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="43"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="42"/>
       <c r="I69" s="26"/>
       <c r="J69" s="26"/>
       <c r="L69" s="26"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
       <c r="Q69" s="26"/>
-      <c r="T69" s="29">
+      <c r="T69" s="28">
         <v>810</v>
       </c>
-      <c r="U69" s="30">
+      <c r="U69" s="29">
         <v>32.799999999999997</v>
       </c>
-      <c r="V69" s="29">
+      <c r="V69" s="28">
         <v>28.5</v>
       </c>
-      <c r="W69" s="29" t="s">
+      <c r="W69" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="43"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="42"/>
       <c r="I70" s="26"/>
       <c r="J70" s="26"/>
       <c r="L70" s="26"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
       <c r="Q70" s="26"/>
-      <c r="T70" s="29">
+      <c r="T70" s="28">
         <v>9.6</v>
       </c>
-      <c r="U70" s="30">
+      <c r="U70" s="29">
         <v>35.700000000000003</v>
       </c>
-      <c r="V70" s="29">
+      <c r="V70" s="28">
         <v>28.7</v>
       </c>
-      <c r="W70" s="29" t="s">
+      <c r="W70" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="28" t="s">
         <v>203</v>
       </c>
       <c r="C71" t="s">
@@ -11816,20 +11647,20 @@
       <c r="E71">
         <v>84</v>
       </c>
-      <c r="F71" s="43">
+      <c r="F71" s="42">
         <v>54</v>
       </c>
-      <c r="G71" s="38">
+      <c r="G71" s="37">
         <v>33</v>
       </c>
-      <c r="H71" s="38">
+      <c r="H71" s="37">
         <v>17</v>
       </c>
       <c r="I71" s="26" t="s">
         <v>178</v>
       </c>
       <c r="J71" s="26">
-        <f t="shared" ref="J68:J85" si="2">F71+G71/60+H71/3600</f>
+        <f t="shared" ref="J71:J84" si="2">F71+G71/60+H71/3600</f>
         <v>54.554722222222217</v>
       </c>
       <c r="K71">
@@ -11838,20 +11669,20 @@
       <c r="L71">
         <v>518400</v>
       </c>
-      <c r="M71" s="29">
+      <c r="M71" s="28">
         <v>0</v>
       </c>
-      <c r="N71" s="29">
+      <c r="N71" s="28">
         <v>49</v>
       </c>
-      <c r="O71" s="29">
+      <c r="O71" s="28">
         <v>23</v>
       </c>
-      <c r="P71" s="29" t="s">
+      <c r="P71" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q71" s="26">
-        <f t="shared" ref="Q68:Q85" si="3">-1*(M71+N71/60+O71/3600)</f>
+        <f t="shared" ref="Q71:Q84" si="3">-1*(M71+N71/60+O71/3600)</f>
         <v>-0.82305555555555554</v>
       </c>
       <c r="R71">
@@ -11860,24 +11691,24 @@
       <c r="S71">
         <v>476100</v>
       </c>
-      <c r="T71" s="29">
+      <c r="T71" s="28">
         <v>1087</v>
       </c>
-      <c r="U71" s="30">
+      <c r="U71" s="29">
         <v>39.9</v>
       </c>
-      <c r="V71" s="29">
+      <c r="V71" s="28">
         <v>28</v>
       </c>
-      <c r="W71" s="29" t="s">
+      <c r="W71" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="28" t="s">
         <v>204</v>
       </c>
       <c r="C72" t="s">
@@ -11889,13 +11720,13 @@
       <c r="E72">
         <v>278</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F72" s="42">
         <v>54</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="37">
         <v>25</v>
       </c>
-      <c r="H72" s="38">
+      <c r="H72" s="37">
         <v>52</v>
       </c>
       <c r="I72" s="26" t="s">
@@ -11911,16 +11742,16 @@
       <c r="L72">
         <v>502780</v>
       </c>
-      <c r="M72" s="29">
+      <c r="M72" s="28">
         <v>0</v>
       </c>
-      <c r="N72" s="29">
+      <c r="N72" s="28">
         <v>48</v>
       </c>
-      <c r="O72" s="29">
+      <c r="O72" s="28">
         <v>50</v>
       </c>
-      <c r="P72" s="29" t="s">
+      <c r="P72" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q72" s="26">
@@ -11933,24 +11764,24 @@
       <c r="S72">
         <v>476950</v>
       </c>
-      <c r="T72" s="29">
+      <c r="T72" s="28">
         <v>1226</v>
       </c>
-      <c r="U72" s="30">
+      <c r="U72" s="29">
         <v>30</v>
       </c>
-      <c r="V72" s="29">
+      <c r="V72" s="28">
         <v>17.8</v>
       </c>
-      <c r="W72" s="29" t="s">
+      <c r="W72" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="28" t="s">
         <v>205</v>
       </c>
       <c r="C73" t="s">
@@ -11962,13 +11793,13 @@
       <c r="E73">
         <v>53</v>
       </c>
-      <c r="F73" s="43">
+      <c r="F73" s="42">
         <v>54</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G73" s="37">
         <v>48</v>
       </c>
-      <c r="H73" s="38">
+      <c r="H73" s="37">
         <v>3</v>
       </c>
       <c r="I73" s="26" t="s">
@@ -11984,16 +11815,16 @@
       <c r="L73">
         <v>545300</v>
       </c>
-      <c r="M73" s="29">
+      <c r="M73" s="28">
         <v>1</v>
       </c>
-      <c r="N73" s="29">
+      <c r="N73" s="28">
         <v>24</v>
       </c>
-      <c r="O73" s="29">
+      <c r="O73" s="28">
         <v>20</v>
       </c>
-      <c r="P73" s="29" t="s">
+      <c r="P73" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q73" s="26">
@@ -12006,253 +11837,253 @@
       <c r="S73">
         <v>438200</v>
       </c>
-      <c r="T73" s="29">
+      <c r="T73" s="28">
         <v>1633</v>
       </c>
-      <c r="U73" s="30">
+      <c r="U73" s="29">
         <v>46.1</v>
       </c>
-      <c r="V73" s="29">
+      <c r="V73" s="28">
         <v>23.2</v>
       </c>
-      <c r="W73" s="29" t="s">
+      <c r="W73" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="43"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="42"/>
       <c r="I74" s="26"/>
       <c r="J74" s="26"/>
       <c r="L74" s="26"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
       <c r="Q74" s="26"/>
-      <c r="T74" s="29">
+      <c r="T74" s="28">
         <v>355</v>
       </c>
-      <c r="U74" s="30">
+      <c r="U74" s="29">
         <v>18.899999999999999</v>
       </c>
-      <c r="V74" s="29">
+      <c r="V74" s="28">
         <v>27</v>
       </c>
-      <c r="W74" s="29" t="s">
+      <c r="W74" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="43"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="42"/>
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
       <c r="L75" s="26"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
       <c r="Q75" s="26"/>
-      <c r="T75" s="29">
+      <c r="T75" s="28">
         <v>386</v>
       </c>
-      <c r="U75" s="30">
+      <c r="U75" s="29">
         <v>20.399999999999999</v>
       </c>
-      <c r="V75" s="29">
+      <c r="V75" s="28">
         <v>28.8</v>
       </c>
-      <c r="W75" s="29" t="s">
+      <c r="W75" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="43"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="42"/>
       <c r="I76" s="26"/>
       <c r="J76" s="26"/>
       <c r="L76" s="26"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
       <c r="Q76" s="26"/>
-      <c r="T76" s="29">
+      <c r="T76" s="28">
         <v>416</v>
       </c>
-      <c r="U76" s="30">
+      <c r="U76" s="29">
         <v>21.1</v>
       </c>
-      <c r="V76" s="29">
+      <c r="V76" s="28">
         <v>28.4</v>
       </c>
-      <c r="W76" s="29" t="s">
+      <c r="W76" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="43"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="42"/>
       <c r="I77" s="26"/>
       <c r="J77" s="26"/>
       <c r="L77" s="26"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
       <c r="Q77" s="26"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="29">
+      <c r="S77" s="28"/>
+      <c r="T77" s="28">
         <v>447</v>
       </c>
-      <c r="U77" s="30">
+      <c r="U77" s="29">
         <v>22.2</v>
       </c>
-      <c r="V77" s="29">
+      <c r="V77" s="28">
         <v>28.9</v>
       </c>
-      <c r="W77" s="29" t="s">
+      <c r="W77" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="43"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="42"/>
       <c r="I78" s="26"/>
       <c r="J78" s="26"/>
       <c r="L78" s="26"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
       <c r="Q78" s="26"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29">
+      <c r="S78" s="28"/>
+      <c r="T78" s="28">
         <v>477</v>
       </c>
-      <c r="U78" s="30">
+      <c r="U78" s="29">
         <v>23.6</v>
       </c>
-      <c r="V78" s="29">
+      <c r="V78" s="28">
         <v>30</v>
       </c>
-      <c r="W78" s="29" t="s">
+      <c r="W78" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="43"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="42"/>
       <c r="I79" s="26"/>
       <c r="J79" s="26"/>
       <c r="L79" s="26"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
       <c r="Q79" s="26"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="29">
+      <c r="S79" s="28"/>
+      <c r="T79" s="28">
         <v>508</v>
       </c>
-      <c r="U79" s="30">
+      <c r="U79" s="29">
         <v>24.4</v>
       </c>
-      <c r="V79" s="29">
+      <c r="V79" s="28">
         <v>29.7</v>
       </c>
-      <c r="W79" s="29" t="s">
+      <c r="W79" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="43"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="42"/>
       <c r="I80" s="26"/>
       <c r="J80" s="26"/>
       <c r="L80" s="26"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
       <c r="Q80" s="26"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29">
+      <c r="S80" s="28"/>
+      <c r="T80" s="28">
         <v>521</v>
       </c>
-      <c r="U80" s="30">
+      <c r="U80" s="29">
         <v>24.2</v>
       </c>
-      <c r="V80" s="29">
+      <c r="V80" s="28">
         <v>28.6</v>
       </c>
-      <c r="W80" s="29" t="s">
+      <c r="W80" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A81" s="28"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="43"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="42"/>
       <c r="I81" s="26"/>
       <c r="J81" s="26"/>
       <c r="L81" s="26"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
       <c r="Q81" s="26"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="29">
+      <c r="S81" s="28"/>
+      <c r="T81" s="28">
         <v>529</v>
       </c>
-      <c r="U81" s="30">
+      <c r="U81" s="29">
         <v>25</v>
       </c>
-      <c r="V81" s="29">
+      <c r="V81" s="28">
         <v>29.7</v>
       </c>
-      <c r="W81" s="29" t="s">
+      <c r="W81" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="28" t="s">
         <v>206</v>
       </c>
       <c r="C82" t="s">
@@ -12264,13 +12095,13 @@
       <c r="E82">
         <v>83</v>
       </c>
-      <c r="F82" s="43">
+      <c r="F82" s="42">
         <v>54</v>
       </c>
-      <c r="G82" s="38">
+      <c r="G82" s="37">
         <v>27</v>
       </c>
-      <c r="H82" s="38">
+      <c r="H82" s="37">
         <v>47</v>
       </c>
       <c r="I82" s="26" t="s">
@@ -12286,16 +12117,16 @@
       <c r="L82">
         <v>508300</v>
       </c>
-      <c r="M82" s="29">
+      <c r="M82" s="28">
         <v>0</v>
       </c>
-      <c r="N82" s="29">
+      <c r="N82" s="28">
         <v>43</v>
       </c>
-      <c r="O82" s="29">
+      <c r="O82" s="28">
         <v>20</v>
       </c>
-      <c r="P82" s="29" t="s">
+      <c r="P82" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q82" s="26">
@@ -12308,24 +12139,24 @@
       <c r="S82">
         <v>482800</v>
       </c>
-      <c r="T82" s="29">
+      <c r="T82" s="28">
         <v>1369</v>
       </c>
-      <c r="U82" s="30">
+      <c r="U82" s="29">
         <v>50.6</v>
       </c>
-      <c r="V82" s="29">
+      <c r="V82" s="28">
         <v>30.7</v>
       </c>
-      <c r="W82" s="29" t="s">
+      <c r="W82" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="28" t="s">
         <v>207</v>
       </c>
       <c r="C83" t="s">
@@ -12337,13 +12168,13 @@
       <c r="E83">
         <v>1171</v>
       </c>
-      <c r="F83" s="43">
+      <c r="F83" s="42">
         <v>54</v>
       </c>
-      <c r="G83" s="38">
+      <c r="G83" s="37">
         <v>29</v>
       </c>
-      <c r="H83" s="38">
+      <c r="H83" s="37">
         <v>38</v>
       </c>
       <c r="I83" s="26" t="s">
@@ -12359,16 +12190,16 @@
       <c r="L83">
         <v>511710</v>
       </c>
-      <c r="M83" s="29">
+      <c r="M83" s="28">
         <v>0</v>
       </c>
-      <c r="N83" s="29">
+      <c r="N83" s="28">
         <v>44</v>
       </c>
-      <c r="O83" s="29">
+      <c r="O83" s="28">
         <v>34</v>
       </c>
-      <c r="P83" s="29" t="s">
+      <c r="P83" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q83" s="26">
@@ -12381,24 +12212,24 @@
       <c r="S83">
         <v>481420</v>
       </c>
-      <c r="T83" s="29">
+      <c r="T83" s="28">
         <v>1390</v>
       </c>
-      <c r="U83" s="30">
+      <c r="U83" s="29">
         <v>46.1</v>
       </c>
-      <c r="V83" s="29">
+      <c r="V83" s="28">
         <v>26.5</v>
       </c>
-      <c r="W83" s="29" t="s">
+      <c r="W83" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="28" t="s">
         <v>208</v>
       </c>
       <c r="C84" t="s">
@@ -12410,13 +12241,13 @@
       <c r="E84">
         <v>23</v>
       </c>
-      <c r="F84" s="43">
+      <c r="F84" s="42">
         <v>54</v>
       </c>
-      <c r="G84" s="38">
+      <c r="G84" s="37">
         <v>57</v>
       </c>
-      <c r="H84" s="38">
+      <c r="H84" s="37">
         <v>14</v>
       </c>
       <c r="I84" s="26" t="s">
@@ -12432,16 +12263,16 @@
       <c r="L84">
         <v>562300</v>
       </c>
-      <c r="M84" s="29">
+      <c r="M84" s="28">
         <v>1</v>
       </c>
-      <c r="N84" s="29">
+      <c r="N84" s="28">
         <v>27</v>
       </c>
-      <c r="O84" s="29">
+      <c r="O84" s="28">
         <v>34</v>
       </c>
-      <c r="P84" s="29" t="s">
+      <c r="P84" s="28" t="s">
         <v>179</v>
       </c>
       <c r="Q84" s="26">
@@ -12454,50 +12285,50 @@
       <c r="S84">
         <v>434600</v>
       </c>
-      <c r="T84" s="29">
+      <c r="T84" s="28">
         <v>1365</v>
       </c>
-      <c r="U84" s="30">
+      <c r="U84" s="29">
         <v>23.9</v>
       </c>
-      <c r="V84" s="29">
+      <c r="V84" s="28">
         <v>10.3</v>
       </c>
-      <c r="W84" s="29" t="s">
+      <c r="W84" s="28" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="43"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="42"/>
       <c r="I85" s="26"/>
       <c r="J85" s="26"/>
       <c r="L85" s="26"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
       <c r="Q85" s="26"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29">
+      <c r="S85" s="28"/>
+      <c r="T85" s="28">
         <v>1514</v>
       </c>
-      <c r="U85" s="29">
+      <c r="U85" s="28">
         <v>26.1</v>
       </c>
-      <c r="V85" s="29">
+      <c r="V85" s="28">
         <v>10.8</v>
       </c>
-      <c r="W85" s="30" t="s">
+      <c r="W85" s="29" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="43" t="s">
         <v>217</v>
       </c>
     </row>
@@ -12514,7 +12345,7 @@
     <mergeCell ref="A56:A63"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A86" r:id="rId1"/>
+    <hyperlink ref="A86" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12523,3515 +12354,3519 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" style="46"/>
+    <col min="9" max="9" width="99.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="46" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="46">
         <v>669020</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="46">
         <v>345700</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="46">
         <v>877</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="46">
         <v>27.8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="46" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="46">
         <v>664700</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="46">
         <v>336300</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="46">
         <v>747</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="46">
         <v>37.799999999999997</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>220</v>
+      <c r="I3" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="46">
         <v>673170</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="46">
         <v>375800</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="46">
         <v>372</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="46">
         <v>23.9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>221</v>
+      <c r="I4" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="46">
         <v>656860</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="46">
         <v>397970</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="46">
         <v>227</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="46">
         <v>11.5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>222</v>
+      <c r="I5" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="46">
         <v>667730</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="46">
         <v>337740</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="46">
         <v>585</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="46">
         <v>17.8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>223</v>
+      <c r="I6" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="46">
         <v>668010</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="46">
         <v>338350</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="46">
         <v>582</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="46">
         <v>23.9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>224</v>
+      <c r="I7" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="46">
         <v>669790</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="46">
         <v>307330</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="46">
         <v>1175</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="46">
         <v>36.700000000000003</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>225</v>
+      <c r="I8" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="46">
         <v>696590</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="46">
         <v>332190</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="46">
         <v>1167</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="46">
         <v>30.4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>226</v>
+      <c r="I9" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="46">
         <v>694200</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="46">
         <v>330400</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="46">
         <v>1007</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="46">
         <v>29.8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>227</v>
+      <c r="I10" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="46">
         <v>697950</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="46">
         <v>330500</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="46">
         <v>960</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="46">
         <v>33.299999999999997</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>228</v>
+      <c r="I11" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="46">
         <v>697220</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="46">
         <v>328890</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="46">
         <v>665</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="46">
         <v>28</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>229</v>
+      <c r="I12" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="46">
         <v>697610</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="46">
         <v>329690</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="46">
         <v>1055</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="46">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>230</v>
+      <c r="I13" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="46">
         <v>672970</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="46">
         <v>332640</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="46">
         <v>1028</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="46">
         <v>26</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>231</v>
+      <c r="I14" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="46">
         <v>663200</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="46">
         <v>329960</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="46">
         <v>670</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="46">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>232</v>
+      <c r="I15" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="46">
         <v>666660</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="46">
         <v>332940</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="46">
         <v>768</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="46">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>233</v>
+      <c r="I16" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="46">
         <v>661250</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="46">
         <v>324960</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="46">
         <v>459</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="46">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>234</v>
+      <c r="I17" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="46">
         <v>698330</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="46">
         <v>333420</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="46">
         <v>1485</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="46">
         <v>42.3</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>235</v>
+      <c r="I18" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="46">
         <v>667936</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="46">
         <v>301866</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="46">
         <v>640</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="46">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>236</v>
+      <c r="I19" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="46">
         <v>664760</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="46">
         <v>336330</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="46">
         <v>942</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="46">
         <v>37.9</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>237</v>
+      <c r="I20" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="46">
         <v>690500</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="46">
         <v>332140</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="46">
         <v>841</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="46">
         <v>29</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>238</v>
+      <c r="I21" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="46">
         <v>670530</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="46">
         <v>332420</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="46">
         <v>866</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="46">
         <v>25.5</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>239</v>
+      <c r="I22" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="46">
         <v>689230</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="46">
         <v>331500</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="46">
         <v>789</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="46">
         <v>29</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>240</v>
+      <c r="I23" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="46">
         <v>518520</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="46">
         <v>476960</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="46">
         <v>1173</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="46">
         <v>37.4</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="46">
         <v>23.7</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>241</v>
+      <c r="I24" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="46">
         <v>527800</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="46">
         <v>409100</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="46">
         <v>197</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="46">
         <v>16.100000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="46">
         <v>39.6</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>242</v>
+      <c r="I25" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="46">
         <v>527800</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="46">
         <v>409100</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="46">
         <v>283</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="46">
         <v>20.100000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="46">
         <v>41.7</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>243</v>
+      <c r="I26" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="46">
         <v>527800</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="46">
         <v>409100</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="46">
         <v>368</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="46">
         <v>24.8</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="46">
         <v>44.8</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>244</v>
+      <c r="I27" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="46">
         <v>527800</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="46">
         <v>409100</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="46">
         <v>488</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="46">
         <v>29.7</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="46">
         <v>43.9</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>245</v>
+      <c r="I28" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="46">
         <v>567620</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="46">
         <v>414560</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="46">
         <v>591</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="46">
         <v>24.7</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="46">
         <v>25.9</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>246</v>
+      <c r="I29" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="46">
         <v>513600</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="46">
         <v>477390</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="46">
         <v>1357</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="46">
         <v>59.4</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="46">
         <v>37.4</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>247</v>
+      <c r="I30" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="46">
         <v>513600</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="46">
         <v>477390</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="46">
         <v>1465</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="46">
         <v>64.400000000000006</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="46">
         <v>38</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>248</v>
+      <c r="I31" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="46">
         <v>513600</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="46">
         <v>477390</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="46">
         <v>1476</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="46">
         <v>71.099999999999994</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="46">
         <v>42.3</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>249</v>
+      <c r="I32" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="46">
         <v>502430</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="46">
         <v>467590</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="46">
         <v>940</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="46">
         <v>37.799999999999997</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="46">
         <v>32.1</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>250</v>
+      <c r="I33" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="46">
         <v>502430</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="46">
         <v>467590</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="46">
         <v>1632</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="46">
         <v>50</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="46">
         <v>26</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>251</v>
+      <c r="I34" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="46">
         <v>574850</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="46">
         <v>434980</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="46">
         <v>1052</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="46">
         <v>32.200000000000003</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="46">
         <v>21.1</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>252</v>
+      <c r="I35" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="46">
         <v>523800</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="46">
         <v>453800</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="46">
         <v>4170</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="46">
         <v>104</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="46">
         <v>22.6</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>253</v>
+      <c r="I36" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="46">
         <v>508780</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="46">
         <v>492260</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="46">
         <v>1351</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="46">
         <v>41</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="46">
         <v>23.3</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>254</v>
+      <c r="I37" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="46">
         <v>506370</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="46">
         <v>493990</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="46">
         <v>1264</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="46">
         <v>42.2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="46">
         <v>26.3</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>255</v>
+      <c r="I38" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="46">
         <v>506690</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="46">
         <v>491810</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="46">
         <v>1360</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="46">
         <v>45</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="46">
         <v>26.3</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>256</v>
+      <c r="I39" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="46">
         <v>508010</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="46">
         <v>492450</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="46">
         <v>1387</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="46">
         <v>42.2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="46">
         <v>23.6</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>257</v>
+      <c r="I40" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="46">
         <v>506850</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="46">
         <v>489570</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="46">
         <v>1311</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="46">
         <v>39</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="46">
         <v>22.8</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>258</v>
+      <c r="I41" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="46">
         <v>508940</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="46">
         <v>489600</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="46">
         <v>1341</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="46">
         <v>42.2</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="46">
         <v>24.2</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>259</v>
+      <c r="I42" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="46">
         <v>507370</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="46">
         <v>494370</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="46">
         <v>1317</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="46">
         <v>44</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="46">
         <v>26.4</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>260</v>
+      <c r="I43" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="46">
         <v>507920</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="46">
         <v>491540</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="46">
         <v>1413</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="46">
         <v>45</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="46">
         <v>25.1</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>261</v>
+      <c r="I44" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="46">
         <v>501300</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="46">
         <v>496630</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="46">
         <v>1372</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="46">
         <v>4</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="46">
         <v>23</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>262</v>
+      <c r="I45" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="46">
         <v>504240</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="46">
         <v>485440</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="46">
         <v>1481</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="46">
         <v>71.099999999999994</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="46">
         <v>42.4</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>263</v>
+      <c r="I46" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="46">
         <v>508200</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="46">
         <v>485700</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="46">
         <v>1219</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="46">
         <v>33.299999999999997</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="46">
         <v>19.600000000000001</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>264</v>
+      <c r="I47" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="46">
         <v>508200</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="46">
         <v>485700</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="46">
         <v>1219</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="46">
         <v>43.3</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="46">
         <v>27.8</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>265</v>
+      <c r="I48" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="46">
         <v>508200</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="46">
         <v>485700</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="46">
         <v>1219</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="46">
         <v>44.7</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="46">
         <v>29</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>266</v>
+      <c r="I49" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="46">
         <v>508200</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="46">
         <v>485700</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="46">
         <v>1695</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="46">
         <v>43.3</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="46">
         <v>20</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>267</v>
+      <c r="I50" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="46">
         <v>508200</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="46">
         <v>485700</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="46">
         <v>1873</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="46">
         <v>41.1</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="46">
         <v>16.899999999999999</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>268</v>
+      <c r="I51" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="46">
         <v>565620</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="46">
         <v>439660</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="46">
         <v>1322</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="46">
         <v>44.8</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="46">
         <v>26.4</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>269</v>
+      <c r="I52" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="46">
         <v>565620</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="46">
         <v>439660</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="46">
         <v>1768</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="46">
         <v>68.900000000000006</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="46">
         <v>33.4</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>270</v>
+      <c r="I53" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="46">
         <v>504030</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="46">
         <v>494780</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="46">
         <v>1638</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="46">
         <v>46.7</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="46">
         <v>22.6</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>271</v>
+      <c r="I54" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="46">
         <v>521270</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="46">
         <v>458790</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="46">
         <v>191</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="46">
         <v>16.100000000000001</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="46">
         <v>32.5</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>272</v>
+      <c r="I55" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="46">
         <v>521270</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="46">
         <v>458790</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="46">
         <v>286</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="46">
         <v>18.399999999999999</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="46">
         <v>29.7</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>273</v>
+      <c r="I56" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="46">
         <v>521270</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="46">
         <v>458790</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="46">
         <v>381</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="46">
         <v>20.6</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="46">
         <v>28.1</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>274</v>
+      <c r="I57" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="46">
         <v>521270</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="46">
         <v>458790</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="46">
         <v>477</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="46">
         <v>22.2</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="46">
         <v>25.8</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>275</v>
+      <c r="I58" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="46">
         <v>521270</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="46">
         <v>458790</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="46">
         <v>572</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="46">
         <v>24.3</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="46">
         <v>25.2</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>276</v>
+      <c r="I59" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="46">
         <v>521270</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="46">
         <v>458790</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="46">
         <v>668</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="46">
         <v>27</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="46">
         <v>25.6</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>277</v>
+      <c r="I60" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="46">
         <v>521270</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="46">
         <v>458790</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="46">
         <v>858</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="46">
         <v>29.4</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="46">
         <v>22.7</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>278</v>
+      <c r="I61" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="46">
         <v>521270</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="46">
         <v>458790</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="46">
         <v>935</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="46">
         <v>30.4</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="46">
         <v>21.9</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>279</v>
+      <c r="I62" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="46">
         <v>518100</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="46">
         <v>463140</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="46">
         <v>191</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="46">
         <v>15.9</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="46">
         <v>32.5</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>280</v>
+      <c r="I63" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="46">
         <v>518100</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="46">
         <v>463140</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="46">
         <v>281</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="46">
         <v>18.899999999999999</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="46">
         <v>32.700000000000003</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>281</v>
+      <c r="I64" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="46">
         <v>518100</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="46">
         <v>463140</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="46">
         <v>429</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="46">
         <v>24.4</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="46">
         <v>34.299999999999997</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>282</v>
+      <c r="I65" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="46">
         <v>518100</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="46">
         <v>463140</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="46">
         <v>572</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="46">
         <v>27.9</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="46">
         <v>31.8</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>283</v>
+      <c r="I66" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="46">
         <v>518100</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="46">
         <v>463140</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="46">
         <v>715</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="46">
         <v>30.6</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="46">
         <v>29.2</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>284</v>
+      <c r="I67" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="46">
         <v>518100</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="46">
         <v>463140</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="46">
         <v>810</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="46">
         <v>32.799999999999997</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="46">
         <v>28.5</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>285</v>
+      <c r="I68" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="46">
         <v>518100</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="46">
         <v>463140</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="46">
         <v>9.6</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="46">
         <v>35.700000000000003</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="46">
         <v>28.7</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>286</v>
+      <c r="I69" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="46">
         <v>518400</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="46">
         <v>476100</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="46">
         <v>1087</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="46">
         <v>39.9</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="46">
         <v>28</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>287</v>
+      <c r="I70" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="46">
         <v>502780</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="46">
         <v>476950</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="46">
         <v>1226</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="46">
         <v>30</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="46">
         <v>17.8</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>288</v>
+      <c r="I71" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="46">
         <v>545300</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="46">
         <v>438200</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="46">
         <v>1633</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="46">
         <v>46.1</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="46">
         <v>23.2</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>289</v>
+      <c r="I72" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="46">
         <v>545300</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="46">
         <v>438200</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="46">
         <v>355</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="46">
         <v>18.899999999999999</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="46">
         <v>27</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>290</v>
+      <c r="I73" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="46">
         <v>545300</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="46">
         <v>438200</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="46">
         <v>386</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="46">
         <v>20.399999999999999</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="46">
         <v>28.8</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>291</v>
+      <c r="I74" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="46">
         <v>545300</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="46">
         <v>438200</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="46">
         <v>416</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="46">
         <v>21.1</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="46">
         <v>28.4</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>292</v>
+      <c r="I75" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="46">
         <v>545300</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="46">
         <v>438200</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="46">
         <v>447</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="46">
         <v>22.2</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="46">
         <v>28.9</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>293</v>
+      <c r="I76" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="46">
         <v>545300</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="46">
         <v>438200</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="46">
         <v>477</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="46">
         <v>23.6</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="46">
         <v>30</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>294</v>
+      <c r="I77" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="46">
         <v>545300</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="46">
         <v>438200</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="46">
         <v>508</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="46">
         <v>24.4</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="46">
         <v>29.7</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>295</v>
+      <c r="I78" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="46">
         <v>545300</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="46">
         <v>438200</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="46">
         <v>521</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="46">
         <v>24.2</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="46">
         <v>28.6</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>296</v>
+      <c r="I79" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="46">
         <v>545300</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="46">
         <v>438200</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="46">
         <v>529</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="46">
         <v>25</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="46">
         <v>29.7</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>297</v>
+      <c r="I80" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="46">
         <v>508300</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="46">
         <v>482800</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="46">
         <v>1369</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="46">
         <v>50.6</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="46">
         <v>30.7</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>298</v>
+      <c r="I81" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="46">
         <v>511710</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="46">
         <v>481420</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="46">
         <v>1390</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="46">
         <v>46.1</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="46">
         <v>26.5</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>299</v>
+      <c r="I82" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="44" t="s">
+      <c r="A83" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="46">
         <v>562300</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="46">
         <v>434600</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="46">
         <v>1365</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="46">
         <v>23.9</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="46">
         <v>10.3</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>300</v>
+      <c r="I83" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="44" t="s">
+      <c r="A84" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="46">
         <v>562300</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="46">
         <v>434600</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="46">
         <v>1514</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="46">
         <v>26.1</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="46">
         <v>10.8</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>301</v>
+      <c r="I84" s="46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="50">
         <v>546900</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="50">
         <v>436000</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="51">
         <v>362.18968809675368</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="52">
         <v>20</v>
       </c>
-      <c r="H85" s="24" t="s">
+      <c r="H85" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="I85" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="50">
         <v>546900</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="50">
         <v>436000</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="51">
         <v>444.93952896244429</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F86" s="52">
         <v>21.666666666666668</v>
       </c>
-      <c r="H86" s="24" t="s">
+      <c r="H86" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="50">
         <v>546900</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="50">
         <v>436000</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="51">
         <v>419.47803946530871</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="52">
         <v>20.833333333333336</v>
       </c>
-      <c r="H87" s="24" t="s">
+      <c r="H87" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I87" s="13" t="s">
+      <c r="I87" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="50">
         <v>546900</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="50">
         <v>436000</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="51">
         <v>446.53087205601526</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F88" s="52">
         <v>21.388888888888889</v>
       </c>
-      <c r="H88" s="24" t="s">
+      <c r="H88" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="I88" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="50">
         <v>546900</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="50">
         <v>436000</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="51">
         <v>433.8001273074475</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="52">
         <v>18.888888888888889</v>
       </c>
-      <c r="H89" s="24" t="s">
+      <c r="H89" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="I89" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="50">
         <v>546900</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="50">
         <v>436000</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="51">
         <v>405.15595162316993</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="52">
         <v>17.222222222222221</v>
       </c>
-      <c r="H90" s="24" t="s">
+      <c r="H90" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="I90" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="50">
         <v>546900</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="50">
         <v>436000</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="51">
         <v>351.05028644175684</v>
       </c>
-      <c r="F91" s="14">
+      <c r="F91" s="52">
         <v>15.555555555555557</v>
       </c>
-      <c r="H91" s="24" t="s">
+      <c r="H91" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I91" s="13" t="s">
+      <c r="I91" s="50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92" s="46">
         <v>546900</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="46">
         <v>436000</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="54">
         <v>345.93111856141417</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="55">
         <v>20.555555555555557</v>
       </c>
-      <c r="H92" s="24" t="s">
+      <c r="H92" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I92" s="22" t="s">
+      <c r="I92" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C93" s="46">
         <v>546900</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="46">
         <v>436000</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="54">
         <v>428.2231027125876</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="55">
         <v>22.222222222222221</v>
       </c>
-      <c r="H93" s="24" t="s">
+      <c r="H93" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I93" s="22" t="s">
+      <c r="I93" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="46">
         <v>546900</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="46">
         <v>436000</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="54">
         <v>400.79244132886316</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="55">
         <v>20.833333333333332</v>
       </c>
-      <c r="H94" s="24" t="s">
+      <c r="H94" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I94" s="22" t="s">
+      <c r="I94" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="46">
         <v>546900</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="46">
         <v>436000</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="54">
         <v>426.69917708015845</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="55">
         <v>21.388888888888889</v>
       </c>
-      <c r="H95" s="24" t="s">
+      <c r="H95" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I95" s="22" t="s">
+      <c r="I95" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96" s="46">
         <v>546900</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="46">
         <v>436000</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="54">
         <v>412.67906126181043</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="55">
         <v>20</v>
       </c>
-      <c r="H96" s="24" t="s">
+      <c r="H96" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I96" s="22" t="s">
+      <c r="I96" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="46">
         <v>546900</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="46">
         <v>436000</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="54">
         <v>430.35659859798841</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="55">
         <v>20</v>
       </c>
-      <c r="H97" s="24" t="s">
+      <c r="H97" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I97" s="22" t="s">
+      <c r="I97" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="46">
         <v>546900</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="46">
         <v>436000</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="54">
         <v>441.93843340444982</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="55">
         <v>20</v>
       </c>
-      <c r="H98" s="24" t="s">
+      <c r="H98" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I98" s="22" t="s">
+      <c r="I98" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="46">
         <v>546900</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="46">
         <v>436000</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="54">
         <v>414.50777202072538</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="55">
         <v>18.888888888888889</v>
       </c>
-      <c r="H99" s="24" t="s">
+      <c r="H99" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I99" s="22" t="s">
+      <c r="I99" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C100" s="22">
+      <c r="C100" s="46">
         <v>546900</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="46">
         <v>436000</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="54">
         <v>423.04175556232855</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="55">
         <v>18.888888888888889</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="H100" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I100" s="22" t="s">
+      <c r="I100" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C101" s="22">
+      <c r="C101" s="46">
         <v>546900</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="46">
         <v>436000</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="54">
         <v>577.5678146906431</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="55">
         <v>21.666666666666668</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H101" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I101" s="22" t="s">
+      <c r="I101" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C102" s="22">
+      <c r="C102" s="46">
         <v>546900</v>
       </c>
-      <c r="D102" s="22">
+      <c r="D102" s="46">
         <v>436000</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="54">
         <v>387.07711063700089</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="55">
         <v>17.222222222222221</v>
       </c>
-      <c r="H102" s="24" t="s">
+      <c r="H102" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I102" s="22" t="s">
+      <c r="I102" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="22">
+      <c r="C103" s="46">
         <v>546900</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="46">
         <v>436000</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E103" s="54">
         <v>414.50777202072538</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="55">
         <v>17.222222222222221</v>
       </c>
-      <c r="H103" s="24" t="s">
+      <c r="H103" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I103" s="22" t="s">
+      <c r="I103" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C104" s="22">
+      <c r="C104" s="46">
         <v>546900</v>
       </c>
-      <c r="D104" s="22">
+      <c r="D104" s="46">
         <v>436000</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="54">
         <v>402.31636696129226</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="55">
         <v>16.666666666666668</v>
       </c>
-      <c r="H104" s="24" t="s">
+      <c r="H104" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I104" s="22" t="s">
+      <c r="I104" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C105" s="22">
+      <c r="C105" s="46">
         <v>546900</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="46">
         <v>436000</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="54">
         <v>335.26363913441025</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="55">
         <v>15.555555555555555</v>
       </c>
-      <c r="H105" s="24" t="s">
+      <c r="H105" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I105" s="22" t="s">
+      <c r="I105" s="46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C106" s="22">
+      <c r="C106" s="46">
         <v>546900</v>
       </c>
-      <c r="D106" s="22">
+      <c r="D106" s="46">
         <v>436000</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="54">
         <v>329.16793660469369</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="55">
         <v>14.722222222222221</v>
       </c>
-      <c r="H106" s="24" t="s">
+      <c r="H106" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I106" s="22" t="s">
+      <c r="I106" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C107" s="46">
         <v>546900</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D107" s="46">
         <v>436000</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="54">
         <v>387.07711063700089</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="55">
         <v>15.277777777777779</v>
       </c>
-      <c r="H107" s="24" t="s">
+      <c r="H107" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I107" s="22" t="s">
+      <c r="I107" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="50">
         <v>545300</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="50">
         <v>438300</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E108" s="51">
         <v>550.60471037555703</v>
       </c>
-      <c r="F108" s="14">
+      <c r="F108" s="52">
         <v>25</v>
       </c>
-      <c r="H108" s="24" t="s">
+      <c r="H108" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I108" s="13" t="s">
+      <c r="I108" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="50">
         <v>545300</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="50">
         <v>438300</v>
       </c>
-      <c r="E109" s="20">
+      <c r="E109" s="51">
         <v>464.67218332272438</v>
       </c>
-      <c r="F109" s="14">
+      <c r="F109" s="52">
         <v>22.222222222222221</v>
       </c>
-      <c r="H109" s="24" t="s">
+      <c r="H109" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I109" s="13" t="s">
+      <c r="I109" s="50" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="50">
         <v>545300</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="50">
         <v>438300</v>
       </c>
-      <c r="E110" s="20">
+      <c r="E110" s="51">
         <v>369.19159770846591</v>
       </c>
-      <c r="F110" s="14">
+      <c r="F110" s="52">
         <v>18.888888888888889</v>
       </c>
-      <c r="H110" s="24" t="s">
+      <c r="H110" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I110" s="13" t="s">
+      <c r="I110" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="50">
         <v>545300</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="50">
         <v>438300</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="57">
         <v>544.23933800127304</v>
       </c>
-      <c r="F111" s="14">
+      <c r="F111" s="52">
         <v>24.444444444444446</v>
       </c>
-      <c r="H111" s="24" t="s">
+      <c r="H111" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I111" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="50">
         <v>545300</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="50">
         <v>438300</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="57">
         <v>530.23551877784848</v>
       </c>
-      <c r="F112" s="14">
+      <c r="F112" s="52">
         <v>23.611111111111111</v>
       </c>
-      <c r="H112" s="24" t="s">
+      <c r="H112" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I112" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="50">
         <v>545300</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="50">
         <v>438300</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="57">
         <v>552.51432208784217</v>
       </c>
-      <c r="F113" s="14">
+      <c r="F113" s="52">
         <v>23.888888888888889</v>
       </c>
-      <c r="H113" s="24" t="s">
+      <c r="H113" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="50">
         <v>545300</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="50">
         <v>438300</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="57">
         <v>498.40865690642903</v>
       </c>
-      <c r="F114" s="14">
+      <c r="F114" s="52">
         <v>22.222222222222221</v>
       </c>
-      <c r="H114" s="24" t="s">
+      <c r="H114" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="I114" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="50">
         <v>545300</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="50">
         <v>438300</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E115" s="57">
         <v>434.75493316359007</v>
       </c>
-      <c r="F115" s="14">
+      <c r="F115" s="52">
         <v>20.388888888888893</v>
       </c>
-      <c r="H115" s="24" t="s">
+      <c r="H115" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="I115" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="50">
         <v>545300</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="50">
         <v>438300</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="57">
         <v>466.58179503500958</v>
       </c>
-      <c r="F116" s="14">
+      <c r="F116" s="52">
         <v>21.111111111111111</v>
       </c>
-      <c r="H116" s="24" t="s">
+      <c r="H116" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I116" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="50">
         <v>545300</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="50">
         <v>438300</v>
       </c>
-      <c r="E117" s="15">
+      <c r="E117" s="57">
         <v>402.92807129217061</v>
       </c>
-      <c r="F117" s="14">
+      <c r="F117" s="52">
         <v>18.888888888888889</v>
       </c>
-      <c r="H117" s="24" t="s">
+      <c r="H117" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I117" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="56">
         <v>695670</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="56">
         <v>321150</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="54">
         <v>561.42584341183965</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="55">
         <v>23.166666666666668</v>
       </c>
-      <c r="H118" s="24" t="s">
+      <c r="H118" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I118" s="11" t="s">
+      <c r="I118" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="56">
         <v>695670</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="56">
         <v>321150</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119" s="54">
         <v>441.75684277530235</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="55">
         <v>19.333333333333332</v>
       </c>
-      <c r="H119" s="24" t="s">
+      <c r="H119" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="I119" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="56">
         <v>695670</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="56">
         <v>321150</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="54">
         <v>759.70719287078293</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="55">
         <v>26.166666666666664</v>
       </c>
-      <c r="H120" s="24" t="s">
+      <c r="H120" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="56">
         <v>695670</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="56">
         <v>321150</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E121" s="54">
         <v>895.92616168045834</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="55">
         <v>27.777777777777779</v>
       </c>
-      <c r="H121" s="24" t="s">
+      <c r="H121" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="56">
         <v>695670</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="56">
         <v>321150</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="54">
         <v>895.60789306174411</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="55">
         <v>27.722222222222225</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="H122" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I122" s="11" t="s">
+      <c r="I122" s="58" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="50">
         <v>562300</v>
       </c>
-      <c r="D123" s="13">
+      <c r="D123" s="50">
         <v>434700</v>
       </c>
-      <c r="E123" s="20">
+      <c r="E123" s="51">
         <v>485.04137492043287</v>
       </c>
-      <c r="F123" s="14">
+      <c r="F123" s="52">
         <v>26.111111111111111</v>
       </c>
-      <c r="H123" s="24" t="s">
+      <c r="H123" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I123" s="13" t="s">
+      <c r="I123" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="50">
         <v>562300</v>
       </c>
-      <c r="D124" s="13">
+      <c r="D124" s="50">
         <v>434700</v>
       </c>
-      <c r="E124" s="20">
+      <c r="E124" s="51">
         <v>437.61935073201784</v>
       </c>
-      <c r="F124" s="14">
+      <c r="F124" s="52">
         <v>23.888888888888889</v>
       </c>
-      <c r="H124" s="24" t="s">
+      <c r="H124" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I124" s="13" t="s">
+      <c r="I124" s="50" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="50">
         <v>585951</v>
       </c>
-      <c r="D125" s="13">
+      <c r="D125" s="50">
         <v>428903</v>
       </c>
-      <c r="E125" s="20">
+      <c r="E125" s="51">
         <v>197.32654360280077</v>
       </c>
-      <c r="F125" s="14">
+      <c r="F125" s="52">
         <v>16.111111111111111</v>
       </c>
-      <c r="H125" s="24" t="s">
+      <c r="H125" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I125" s="13" t="s">
+      <c r="I125" s="50" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="50">
         <v>562300</v>
       </c>
-      <c r="D126" s="13">
+      <c r="D126" s="50">
         <v>434700</v>
       </c>
-      <c r="E126" s="15">
+      <c r="E126" s="57">
         <v>481.85868873329093</v>
       </c>
-      <c r="F126" s="14">
+      <c r="F126" s="52">
         <v>26.111111111111111</v>
       </c>
-      <c r="H126" s="24" t="s">
+      <c r="H126" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="I126" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="50">
         <v>562300</v>
       </c>
-      <c r="D127" s="13">
+      <c r="D127" s="50">
         <v>434700</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="59">
         <v>434.4366645448759</v>
       </c>
-      <c r="F127" s="14">
+      <c r="F127" s="52">
         <v>23.888888888888889</v>
       </c>
-      <c r="H127" s="24" t="s">
+      <c r="H127" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I127" s="56" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="50">
         <v>570500</v>
       </c>
-      <c r="D128" s="13">
+      <c r="D128" s="50">
         <v>427200</v>
       </c>
-      <c r="E128" s="20">
+      <c r="E128" s="51">
         <v>381.92234245703372</v>
       </c>
-      <c r="F128" s="14">
+      <c r="F128" s="52">
         <v>23.333333333333336</v>
       </c>
-      <c r="H128" s="24" t="s">
+      <c r="H128" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I128" s="13" t="s">
+      <c r="I128" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C129" s="16">
+      <c r="C129" s="53">
         <v>353233</v>
       </c>
-      <c r="D129" s="16">
+      <c r="D129" s="53">
         <v>451745</v>
       </c>
-      <c r="E129" s="20">
+      <c r="E129" s="51">
         <v>454.16931890515599</v>
       </c>
-      <c r="F129" s="18">
+      <c r="F129" s="60">
         <v>22.777777777777779</v>
       </c>
-      <c r="H129" s="24" t="s">
+      <c r="H129" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I129" s="13" t="s">
+      <c r="I129" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C130" s="16">
+      <c r="C130" s="53">
         <v>348079</v>
       </c>
-      <c r="D130" s="16">
+      <c r="D130" s="53">
         <v>452572</v>
       </c>
-      <c r="E130" s="20">
+      <c r="E130" s="51">
         <v>398.47231063017188</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="60">
         <v>21.111111111111111</v>
       </c>
-      <c r="H130" s="24" t="s">
+      <c r="H130" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I130" s="13" t="s">
+      <c r="I130" s="50" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
